--- a/resources/excelfiles/Appollo.xlsx
+++ b/resources/excelfiles/Appollo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>LoginId</t>
   </si>
@@ -30,15 +30,6 @@
   </si>
   <si>
     <t>wingigy@1234</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Password@123</t>
   </si>
 </sst>
 </file>
@@ -83,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -111,17 +102,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
